--- a/analise_curva_ABC/analise_curva_ABC/analises_prontas/ordem/divisão_por_desc_xpe.xlsx
+++ b/analise_curva_ABC/analise_curva_ABC/analises_prontas/ordem/divisão_por_desc_xpe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="426">
   <si>
     <t>29_28</t>
   </si>
@@ -37,124 +37,1261 @@
     <t>Ordem</t>
   </si>
   <si>
-    <t>EMSEXPECTOR XPE 120ML</t>
-  </si>
-  <si>
-    <t>ACETILCISTEINA 20MG/ML XPE 120ML</t>
-  </si>
-  <si>
-    <t>CARBOCISTEINA XPE AD  100ML</t>
-  </si>
-  <si>
-    <t>LORATADINA 1MG/ML XPE 100ML</t>
+    <t>NARIDRIN 12 HORAS FR C/30ML</t>
+  </si>
+  <si>
+    <t>BUDESONIDA 32MCG SPRAY NASAL</t>
+  </si>
+  <si>
+    <t>OTOMIXYN  (AM) GOTAS FR C/5ML</t>
+  </si>
+  <si>
+    <t>NIMESULIDA 100MG C/ 12COMP</t>
+  </si>
+  <si>
+    <t>BENZIFLEX LIS 125MG+5MG C/ 15COMP REV</t>
+  </si>
+  <si>
+    <t>ENDCOFF MEL E LIMAO C/ 12PAST</t>
+  </si>
+  <si>
+    <t>GLICERIN ADULTO C/06 SUP</t>
+  </si>
+  <si>
+    <t>ACEBROFILINA AD 50MG 120ML</t>
+  </si>
+  <si>
+    <t>POLICLAVUMOXIL SUSP 250MG (AM) 75ML</t>
+  </si>
+  <si>
+    <t>ENALAPRIL 10MG 30CP</t>
+  </si>
+  <si>
+    <t>ACET DE DEXAMETASONA CREME 10G</t>
+  </si>
+  <si>
+    <t>SUPLEVIT MULHER C/ 60CAPS GEL</t>
+  </si>
+  <si>
+    <t>DORILEN GOTAS FR 15ML</t>
+  </si>
+  <si>
+    <t>BROMETO IPRATROPIO 20ML SOL INAL</t>
+  </si>
+  <si>
+    <t>EMISTIN CREME 20GR</t>
+  </si>
+  <si>
+    <t>AMOX+CLAVUL POT 875+125MG (AM) C/ 14CP</t>
+  </si>
+  <si>
+    <t>NATUS GERIN C/50 CAPS</t>
+  </si>
+  <si>
+    <t>REPOFLOR 250MG FR C/10 CAP DURA - L</t>
+  </si>
+  <si>
+    <t>CLORATADD XAROPE 100ML</t>
+  </si>
+  <si>
+    <t>AMOX-EMS SUSP 250MG (AM) 150ML</t>
+  </si>
+  <si>
+    <t>CEFALEXINA 500MG (AM) C/ 8COMP</t>
+  </si>
+  <si>
+    <t>NATUS GERIN C/30 CAPS</t>
+  </si>
+  <si>
+    <t>SUPLEVIT C ZINCO1G+10MG C/10COMP EFERV</t>
+  </si>
+  <si>
+    <t>SUPLEVIT C ZINCO1G+10MG C/30COMP EFERV</t>
+  </si>
+  <si>
+    <t>MALEATO TIMOLOL 0,5% SOL 5ML</t>
+  </si>
+  <si>
+    <t>PREDNISONA  5MG C/ 20COMP</t>
+  </si>
+  <si>
+    <t>PANTOPRAZOL 40MG C/ 42COMP</t>
+  </si>
+  <si>
+    <t>DEXCL+BETA 2,0/25MG 20CP</t>
+  </si>
+  <si>
+    <t>HIDROCLOROTIAZIDA 25MG C/ 30CP</t>
+  </si>
+  <si>
+    <t>ACIDO TRANEXAMICO 250MG C/ 12COMP</t>
+  </si>
+  <si>
+    <t>GLIBENCLAMIDA 5MG C/ 30COMP</t>
+  </si>
+  <si>
+    <t>DROSP+ETINIL 3MG+0,03MG C/21 COMP</t>
+  </si>
+  <si>
+    <t>AG PANTS MULTIFRAL P/M C/ 1UN</t>
+  </si>
+  <si>
+    <t>DEXAMETASONA 4,0MG C/ 10CP</t>
+  </si>
+  <si>
+    <t>TESTE DE GRAVIDEZ CONFIRA TIRA+COLET C/1</t>
+  </si>
+  <si>
+    <t>LIDOCAINA 50MG POM DERM LARANJA</t>
+  </si>
+  <si>
+    <t>HIDROXIZINA 25MG C/ 30CP</t>
+  </si>
+  <si>
+    <t>DIPIRONA SOD 10ML</t>
+  </si>
+  <si>
+    <t>DICLOF DIETILAMONIO GEL 60GR</t>
+  </si>
+  <si>
+    <t>ALENDRONATO DE SODIO 70MG C/ 4COMP</t>
+  </si>
+  <si>
+    <t>NARATRIN 2,5MG C/ 4COMP</t>
+  </si>
+  <si>
+    <t>COMPRESSA HÉRIKA 9 FIOS 7,5X7,5CM C/10</t>
+  </si>
+  <si>
+    <t>SOMINEX MELATONINA FR C/ 60COMP ORODISP</t>
+  </si>
+  <si>
+    <t>ROSUVASTATINA CALCICA  5MG C/ 30COMP</t>
+  </si>
+  <si>
+    <t>IBUPROFENO 100MG/ML 20ML (MORANGO)</t>
+  </si>
+  <si>
+    <t>ONCILEG POMADA (AM) 30 GR</t>
+  </si>
+  <si>
+    <t>ATENOLOL 25MG C/ 30COMP</t>
+  </si>
+  <si>
+    <t>LOSARTANA POT 50MG 30CP</t>
+  </si>
+  <si>
+    <t>ATORVASTATINA 10MG C/ 30COMP</t>
+  </si>
+  <si>
+    <t>TOALHAS UMED PURO AMOR 100 UND</t>
+  </si>
+  <si>
+    <t>DIENOGESTE 2MG C/ 30CP-</t>
+  </si>
+  <si>
+    <t>DIMETILIV GOTAS FR C/15ML EMS</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>ALGESTONA AC+ES 150+10MG 1AMP</t>
+  </si>
+  <si>
+    <t>CEFADROXILA 500MG (AM) C/ 8CAP</t>
+  </si>
+  <si>
+    <t>FINASTERIDA 1MG C/ 30COMP</t>
+  </si>
+  <si>
+    <t>RIFASAN 10MG/ML (AM) SPRAY 20ML</t>
+  </si>
+  <si>
+    <t>ALBENDAZOL SUSP 10ML</t>
+  </si>
+  <si>
+    <t>MELOVAC 15MG C/10COMP</t>
+  </si>
+  <si>
+    <t>TRINULOX CR DERM BS 15G</t>
+  </si>
+  <si>
+    <t>ATADURA DE CREPOM 20CMX1.8M</t>
+  </si>
+  <si>
+    <t>BUPROVIL 600MG C/ 20COMP</t>
+  </si>
+  <si>
+    <t>DESOGESTREL 75MCG C/ 28COMP</t>
+  </si>
+  <si>
+    <t>SUPLEVIT KIDS SUSP ORAL C/ 150ML</t>
+  </si>
+  <si>
+    <t>DESLORATADINA XPE 0,5MG/ML 100ML</t>
+  </si>
+  <si>
+    <t>SPRAYZIIN GENGIBRE C/ 30ML SPRAY</t>
+  </si>
+  <si>
+    <t>KELOSIL GEL DE SILICONE 15G</t>
+  </si>
+  <si>
+    <t>ESOMEPRAZOL MAG 20MG  C/ 28COMP</t>
+  </si>
+  <si>
+    <t>TIOTRAX CREME 35 GR+7 APLIC</t>
+  </si>
+  <si>
+    <t>COLIRIO GEOLAB SOL OFT C/ 20ML</t>
+  </si>
+  <si>
+    <t>SOMINEX MELATONINA FR C/ 120COMP ORODISP</t>
+  </si>
+  <si>
+    <t>NISTATINA SUSP 50ML</t>
+  </si>
+  <si>
+    <t>TERBINAFINA CREME C/20GR</t>
+  </si>
+  <si>
+    <t>JAQUE 2MG + 0,035MG 1BLX21 COM REV-</t>
+  </si>
+  <si>
+    <t>MACA ULTRA 2000MG MACA PERUANA 90 CAPS</t>
+  </si>
+  <si>
+    <t>DICLOF COLESTIRAMINA 70MG 14CAP</t>
+  </si>
+  <si>
+    <t>COLIRIO NEO BRASIL SOL OFT FR C/20ML NEO</t>
+  </si>
+  <si>
+    <t>CYSTEX C/ 24DRG</t>
+  </si>
+  <si>
+    <t>ALLEXOFEDRIN PED 6MG/ML SUSP   60ML</t>
+  </si>
+  <si>
+    <t>AMOX+CLAVUL POT SUSP 400MG (AM) 70ML</t>
+  </si>
+  <si>
+    <t>BUDESONIDA 64MCG SPRAY NASAL</t>
+  </si>
+  <si>
+    <t>AMOX+CLAVUL POT SUSP 250MG (AM) 75ML</t>
+  </si>
+  <si>
+    <t>AMOXICILINA SUSP 250MG (AM) 150ML</t>
+  </si>
+  <si>
+    <t>DORILEN C/12 COMP</t>
+  </si>
+  <si>
+    <t>CEFALEXINA 500MG (AM) C/ 10COMP</t>
+  </si>
+  <si>
+    <t>DORICIN 3BLT C/12 COMPRIMIDOS-</t>
+  </si>
+  <si>
+    <t>METILDOPA 250MG C/ 30CP</t>
+  </si>
+  <si>
+    <t>CLOR FEXOFENADINA 120MG C/ 10COMP</t>
+  </si>
+  <si>
+    <t>REPOFLOR 100MG C/ 12CAPS</t>
+  </si>
+  <si>
+    <t>AG ABSORVENTE MULTIFRAL TAM U C/ 1UN</t>
+  </si>
+  <si>
+    <t>EMSCORT CREME 30GR</t>
+  </si>
+  <si>
+    <t>CETOPROFENO   50MG C/ 24CAP</t>
+  </si>
+  <si>
+    <t>DIPIRONA SOD 20ML</t>
+  </si>
+  <si>
+    <t>REPOFLOR 250MG C/10 SACHES - L</t>
+  </si>
+  <si>
+    <t>CENEVIT ZINCO 1G+10MG C/ 10CP EFR</t>
+  </si>
+  <si>
+    <t>HIDROXIZINA 25MG C/ 30COMP GEN</t>
+  </si>
+  <si>
+    <t>DEXCLORFENIRAMINA CREME 30GR</t>
+  </si>
+  <si>
+    <t>CETOCONAZOL 20MG CREME C/30GR</t>
+  </si>
+  <si>
+    <t>ALKAGEL HORTELÃ SUSP ORAL FR 240 ML</t>
+  </si>
+  <si>
+    <t>PANTOPRAZOL 40MG C/ 28COMP</t>
+  </si>
+  <si>
+    <t>ATORVASTATINA 20MG C/ 30COMP</t>
+  </si>
+  <si>
+    <t>CICLO 21 C/ 21COMP</t>
+  </si>
+  <si>
+    <t>LORATAMED 10MG C/ 12COMP</t>
+  </si>
+  <si>
+    <t>CLOTRIMAZOL 10MG CR VAG 35G+6AP</t>
+  </si>
+  <si>
+    <t>BENEVRAN GEL 60GR</t>
+  </si>
+  <si>
+    <t>DORICIN 2BLT C/12 COMPRIMIDOS-</t>
+  </si>
+  <si>
+    <t>DROSP+ETINIL.3MG+0,02MG C/24C.R</t>
+  </si>
+  <si>
+    <t>DOMPERIDONA 10MG C/ 30COMP</t>
+  </si>
+  <si>
+    <t>FLUITEINA 600MG  16ENV 5G</t>
+  </si>
+  <si>
+    <t>AMILOR+HIDRO 5,0/50MG C/ 30CP</t>
+  </si>
+  <si>
+    <t>ATORVASTATINA 40MG C/ 30COMP</t>
+  </si>
+  <si>
+    <t>CIMEGRIPE C/ 20CAPS</t>
+  </si>
+  <si>
+    <t>BENEVRAN C/ 20DRG</t>
+  </si>
+  <si>
+    <t>SOMINEX MELATONINA GOTAS C/ 30ML</t>
+  </si>
+  <si>
+    <t>IVERMECTINA 6MG C/ 4COMP</t>
+  </si>
+  <si>
+    <t>CILOSTAZOL 100MG 60 CPR - EMS GEN</t>
+  </si>
+  <si>
+    <t>SIMETICONA  75MG/ML FR C/ 15ML</t>
+  </si>
+  <si>
+    <t>FUROATO MOMETASONA CR 20G</t>
+  </si>
+  <si>
+    <t>CILOSTAZOL 50MG 60 CPR - EMS GEN</t>
+  </si>
+  <si>
+    <t>GLICLAZIDA 60MG C/ 30 COM LIB PROL</t>
+  </si>
+  <si>
+    <t>DESLORATADINA 5MG C/ 10COMP</t>
+  </si>
+  <si>
+    <t>CICLORTEN 20MG C/ 20COMP -</t>
+  </si>
+  <si>
+    <t>ATENOLOL 50MG C/ 30COMP</t>
+  </si>
+  <si>
+    <t>NARATRIPTANA 2,5MG C/ 10COMP</t>
+  </si>
+  <si>
+    <t>DILTIAZEM 30MG C/ 50COMP</t>
+  </si>
+  <si>
+    <t>MELOXIGRAN 15MG C/ 10COMP</t>
+  </si>
+  <si>
+    <t>PANTOPRAZOL 20MG C/ 28COMP</t>
+  </si>
+  <si>
+    <t>FITA CIRUR MICROPOROSA BRANCA 5CMX4,5M</t>
+  </si>
+  <si>
+    <t>ROSUVASTATINA CALCICA 10MG C/ 30COMP</t>
+  </si>
+  <si>
+    <t>CLARITROMICINA(AM)SUSP 250MG/5ML 60MLGEN</t>
+  </si>
+  <si>
+    <t>INALAJET SUS SPR NAS 64MCG</t>
+  </si>
+  <si>
+    <t>DORICIN GOTAS 20ML</t>
+  </si>
+  <si>
+    <t>RIVAROXABANA 15 MG C/ 30COMP REV</t>
+  </si>
+  <si>
+    <t>ESOMEPRAZOL MAG 40MG C/  28COMP</t>
+  </si>
+  <si>
+    <t>SPRAYZIIN ROMA C/ 30ML SPRAY</t>
+  </si>
+  <si>
+    <t>BROMOPRIDA 10MG C/ 20COMP</t>
+  </si>
+  <si>
+    <t>SUPLEVIT KIDS ABCD LAR C/ 240ML</t>
+  </si>
+  <si>
+    <t>CARVEDILOL 3,125MG C/ 30COMP</t>
+  </si>
+  <si>
+    <t>AMOX+CLAV POT SUSP 400+57MG/5ML(AM) 70ML</t>
+  </si>
+  <si>
+    <t>ESMOG 20MG X 28CPR</t>
+  </si>
+  <si>
+    <t>SINVASTATINA 10MG C/ 30COMP</t>
+  </si>
+  <si>
+    <t>VITAMINA C+ZINCO C/ 10COMP EFERV</t>
+  </si>
+  <si>
+    <t>MESALAZINA 800MG C/ 30CP</t>
+  </si>
+  <si>
+    <t>PREDNISONA 20MG C/ 10COMP</t>
+  </si>
+  <si>
+    <t>FUMARATO BISOPROLOL 10MG 30CP REV</t>
+  </si>
+  <si>
+    <t>CERA ORTODONTICA POWER WAX</t>
+  </si>
+  <si>
+    <t>MELAGRIAO XAROPE C/150 ML CATARINENSE</t>
+  </si>
+  <si>
+    <t>ESMOG 40MG X 28CPR</t>
+  </si>
+  <si>
+    <t>FIO DENTAL POWERDENT LIGHT 100M</t>
+  </si>
+  <si>
+    <t>AMOXICILINA 500MG (AM) C/ 21CAP</t>
+  </si>
+  <si>
+    <t>APEVITIN BC XPE 240ML</t>
+  </si>
+  <si>
+    <t>REPOFLOR 200MG C/ 06CAPS</t>
+  </si>
+  <si>
+    <t>PARACETAMOL+CLOR PSEUD C/24CP</t>
+  </si>
+  <si>
+    <t>GEROVITAL C/ 60CAPS</t>
+  </si>
+  <si>
+    <t>ACETILCISTEINA 600MG 16ENV 5G</t>
+  </si>
+  <si>
+    <t>GLICERIN INFANTIL C/06 SUP</t>
+  </si>
+  <si>
+    <t>PREDNISOLONA 20MG C/ 10COMP</t>
+  </si>
+  <si>
+    <t>AMOX+CLAVUL POT 500+125MG (AM) C/ 12CP</t>
+  </si>
+  <si>
+    <t>SUAVICID CRM C/ 15GR</t>
+  </si>
+  <si>
+    <t>CLORTALIDONA 12,5MG C/ 60COMP</t>
+  </si>
+  <si>
+    <t>VOLIG 4MG C/ 10COMP</t>
+  </si>
+  <si>
+    <t>NARIDRIN INFANTIL FR C/15ML</t>
+  </si>
+  <si>
+    <t>GLICLAZIDA CPR LIB PROL 30 MG C/ 30</t>
+  </si>
+  <si>
+    <t>AMOXICILINA 875MG (AM) C/ 14CAP</t>
+  </si>
+  <si>
+    <t>COLIRIO LEGRAND SOL OFT C/ 20ML</t>
+  </si>
+  <si>
+    <t>SINVASTATINA 20MG C/ 30COMP</t>
+  </si>
+  <si>
+    <t>ACEBROFILINA INF 25MG 120ML</t>
+  </si>
+  <si>
+    <t>AMOXICILINA SUSP 400MG (AM) 100ML</t>
+  </si>
+  <si>
+    <t>NEXFLEN 550MG C/ 10COMP</t>
+  </si>
+  <si>
+    <t>DIPIRONA SOD 500MG 24X10 240 COMP</t>
+  </si>
+  <si>
+    <t>CICLOPIROX OLAMINA SOL TOP 15ML</t>
+  </si>
+  <si>
+    <t>AZITROMICINA SUSP ORAL 600MG (AM)</t>
+  </si>
+  <si>
+    <t>AMOX+CLAVUL POT 875+125MG (AM) C/ 20CP</t>
+  </si>
+  <si>
+    <t>LORASLIV 10MG C/ 12COMP</t>
+  </si>
+  <si>
+    <t>SIMETICONA 125MG C/ 10CAPS</t>
+  </si>
+  <si>
+    <t>ATENOLOL 25MG C/ 30COMP SANDOZ</t>
+  </si>
+  <si>
+    <t>A SAUDE DA MULHER 150ML</t>
+  </si>
+  <si>
+    <t>FINASTERIDA 5MG C/ 30COMP</t>
+  </si>
+  <si>
+    <t>NEOTRICIN PDA C/15GR</t>
+  </si>
+  <si>
+    <t>ORLISTATE 120 MG C/ 42CAPS</t>
+  </si>
+  <si>
+    <t>BROMOPRIDA 4MG/ML SOL 20ML</t>
+  </si>
+  <si>
+    <t>LEVOCETIRIZINA  5MG C/ 10COMP</t>
+  </si>
+  <si>
+    <t>ALERGALIV 10MG C/ 15COMP</t>
+  </si>
+  <si>
+    <t>INFLALID C/12 COMP</t>
+  </si>
+  <si>
+    <t>RIVAROXABANA 20 MG C/ 30COMP REV</t>
+  </si>
+  <si>
+    <t>DORICIN 5BLT C/10 COMPRIMIDOS-</t>
+  </si>
+  <si>
+    <t>BILASTINA 20 MG X 15 COMP</t>
+  </si>
+  <si>
+    <t>DROSP+ETINIL 3MG+0,02MG C/24</t>
+  </si>
+  <si>
+    <t>ESPASMO DIMETILIV C/ 20ML</t>
+  </si>
+  <si>
+    <t>DIPROP BETA+SULF GENTA (AM) CR 30GR</t>
+  </si>
+  <si>
+    <t>DERMOBENE SOLUCAO FR C/20ML</t>
+  </si>
+  <si>
+    <t>TIOCONAZOL+TINIDAZOL CR VAG 35G</t>
+  </si>
+  <si>
+    <t>FD GER MULTIFRAL REGULAR M 8X08</t>
+  </si>
+  <si>
+    <t>COMPRESSA SOPHIA NAOESTERIL 7,5X7,5 C/10</t>
+  </si>
+  <si>
+    <t>SUAVICID CRM C/ 30GR</t>
+  </si>
+  <si>
+    <t>BENZIFLEX 10MG C/ 15COMP</t>
+  </si>
+  <si>
+    <t>ATADURA DE CREPOM  8CMX1.8M</t>
+  </si>
+  <si>
+    <t>DIPROP BETA+AC SALICILICO POM 30G</t>
+  </si>
+  <si>
+    <t>MAGFORT 4BLT 60 CAPS</t>
+  </si>
+  <si>
+    <t>MAXALGINA 500MG/ML C/10ML</t>
+  </si>
+  <si>
+    <t>CLOR NEBIVOLOL 5MG 2BLX15 COM</t>
+  </si>
+  <si>
+    <t>DESONIDA 0,5MG CREME 30GR</t>
+  </si>
+  <si>
+    <t>SINVASTATINA 40MG C/ 30COMP</t>
+  </si>
+  <si>
+    <t>NATURELEV GELEIA AMEIXA/TAMARINDO 150G</t>
+  </si>
+  <si>
+    <t>OMEPRAZOL 20MG C/ 28CAPS</t>
+  </si>
+  <si>
+    <t>NARIDRIN LAVAGEM NASAL30ENVX2,16GREFIL</t>
+  </si>
+  <si>
+    <t>CIMELIDE 100MG C/ 12COMP</t>
+  </si>
+  <si>
+    <t>ITRALEX 100MG C/15 CAP</t>
+  </si>
+  <si>
+    <t>EZETIMIBA 10MG C/ 60COMP</t>
+  </si>
+  <si>
+    <t>HIDROCORTISONA POMADA 30GR</t>
+  </si>
+  <si>
+    <t>CARVEDILOL 12,5MG C/ 30COMP</t>
+  </si>
+  <si>
+    <t>FUMARATO BISOPROLOL 1,25MG 30CP</t>
+  </si>
+  <si>
+    <t>SOLUÇÃO FISIOLÓGICA 100ML</t>
+  </si>
+  <si>
+    <t>NIMESILAM 50MG/ML GTS C/ 15ML</t>
+  </si>
+  <si>
+    <t>QUEIMALIVE PDA C/30G</t>
+  </si>
+  <si>
+    <t>INFRALAX C/30 COMP</t>
+  </si>
+  <si>
+    <t>COMPLEXO B FR C/100 COMP REV</t>
+  </si>
+  <si>
+    <t>CELERGIN C/ 20COMP</t>
+  </si>
+  <si>
+    <t>BISMU-JET GOTAS 20ML</t>
+  </si>
+  <si>
+    <t>CELERG C/ 20COMP</t>
+  </si>
+  <si>
+    <t>REPOFLOR 200MG C/ 4SACHES</t>
+  </si>
+  <si>
+    <t>HIDROXIDO ALUMINIO SUSP 240ML GEN</t>
+  </si>
+  <si>
+    <t>POLICLAVUMOXIL 500MG (AM) 12COMP</t>
+  </si>
+  <si>
+    <t>ALLEXOFEDRIN 120MG C/ 10COM REV-</t>
+  </si>
+  <si>
+    <t>ACIDO MEFENAMICO 500MG C/ 24COMP</t>
+  </si>
+  <si>
+    <t>DEXCLORFENIRAMINA 2MG 20CP</t>
+  </si>
+  <si>
+    <t>SUPLEVIT C PREVENT 1G C/ 10COMP EFERV</t>
+  </si>
+  <si>
+    <t>NISTATINA+OXIDO ZINCO POM 60G</t>
+  </si>
+  <si>
+    <t>REPOPIL C/ 21 CPDS REV</t>
+  </si>
+  <si>
+    <t>ALLOVITA 50MG SOL CAPILAR FR 50ML</t>
+  </si>
+  <si>
+    <t>SUPLEVIT MULHER C/ 30CAPS GEL</t>
+  </si>
+  <si>
+    <t>POLICLAVUMOXIL 500MG (AM) 18COMP</t>
+  </si>
+  <si>
+    <t>CETOPROFENO 150MG C/ 10COMP LIB PROL</t>
+  </si>
+  <si>
+    <t>CENEVIT 1GR EFERV C/10 COMP</t>
+  </si>
+  <si>
+    <t>AZITROMICINA SUSP ORAL 900MG (AM)</t>
   </si>
   <si>
     <t>ACETILCISTEINA 40MG/ML XPE 120ML</t>
   </si>
   <si>
-    <t>LACTULIV 667MG/ML SOL SAL.FRUTAS 120ML</t>
-  </si>
-  <si>
-    <t>DIPIRONA SOD SOL ORAL 100ML</t>
-  </si>
-  <si>
-    <t>BROMEXINA XPE INF 120ML</t>
-  </si>
-  <si>
-    <t>CELERGIN XPE 120ML</t>
-  </si>
-  <si>
-    <t>DEXCLORFENIRAMINA XPE 120ML</t>
-  </si>
-  <si>
-    <t>BISURAN XPE AD 8MG/5ML 120ML</t>
-  </si>
-  <si>
-    <t>BISURAN XPE INF 4MG/5ML 120ML</t>
-  </si>
-  <si>
-    <t>NORMOLAX AMEIXA  667MG/ML SOL 120ML</t>
-  </si>
-  <si>
-    <t>BRONDELIX 7MG/ML XPE FR C/100ML</t>
-  </si>
-  <si>
-    <t>CLOPE 3,54MG/ML XPE 120ML</t>
-  </si>
-  <si>
-    <t>CELERG XPE 120ML</t>
-  </si>
-  <si>
-    <t>LACTULIV 667MG/ML SOL AMEIXA 120ML</t>
-  </si>
-  <si>
-    <t>EXPECTUSS INFANTIL FR C/100ML</t>
-  </si>
-  <si>
-    <t>FLUITEINA XPE INF 20MG//ML 120ML</t>
+    <t>AMOX-EMS 500MG (AM) C/ 21CAPS</t>
+  </si>
+  <si>
+    <t>CENEVIT TRIPLA ACAO 10 CPR EFER S.A-L</t>
+  </si>
+  <si>
+    <t>GEROVITAL C/ 30CAPS</t>
+  </si>
+  <si>
+    <t>PREDINIS 20MG C/ 10COMP</t>
+  </si>
+  <si>
+    <t>NEOSORO AD C/ 30ML</t>
+  </si>
+  <si>
+    <t>NIMESULIDA 50MG/ML GTS C/ 15ML</t>
+  </si>
+  <si>
+    <t>PIROXICAM 20MG C/ 15CAPS</t>
+  </si>
+  <si>
+    <t>CLORATADD 10MG C/ 12COMP</t>
   </si>
   <si>
     <t>DEXCL+BETA XPE 120ML</t>
   </si>
   <si>
-    <t>HISTAMIN XPE 2MG/5ML 100ML</t>
-  </si>
-  <si>
-    <t>EXPEC-TAMIN SOL ORAL 120ML</t>
-  </si>
-  <si>
-    <t>POLAPIC 0,4MG/ML SOL OR 120ML</t>
-  </si>
-  <si>
-    <t>HIXILERG 2MG/ML SOL ORAL 120ML</t>
-  </si>
-  <si>
-    <t>AMBROXOL XPE AD 120ML</t>
-  </si>
-  <si>
-    <t>CEFALEXINA SUSP 250MG (AM) 100ML</t>
-  </si>
-  <si>
-    <t>CARBOCISTEINA XPE INF 100ML</t>
-  </si>
-  <si>
-    <t>HIDROXIZINA SOL ORAL 120ML</t>
-  </si>
-  <si>
-    <t>DEXAMETASONA ELIXIR 120ML</t>
-  </si>
-  <si>
-    <t>EXPEC HEDRA 7MG/ML SOL ORAL C/ 100 ML-L</t>
-  </si>
-  <si>
-    <t>IBUFLEX 100MG/ML SUSP ORAL C/ 30ML</t>
-  </si>
-  <si>
-    <t>COMPLEXO B12 XPE FR C/120ML</t>
-  </si>
-  <si>
-    <t>FLUITEINA XPE AD 40MG/ML 120ML</t>
-  </si>
-  <si>
-    <t>NORMOLAX SAL FRUTAS 667MG/ML SOL120ML</t>
-  </si>
-  <si>
-    <t>SULFA+TRI SUSP (AM) 100ML</t>
-  </si>
-  <si>
-    <t>EXPEC XAROPE FR C/120ML</t>
-  </si>
-  <si>
-    <t>AMBROXOL XPE INF 120ML</t>
-  </si>
-  <si>
-    <t>EXPECTUSS ADULTO FR C/100ML</t>
-  </si>
-  <si>
-    <t>CLOPERASTINA XPE 3,54 MG/ML C/120 ML</t>
-  </si>
-  <si>
-    <t>BETAMETASONA ELIXIR 120ML</t>
+    <t>FUMARATO BISOPROLOL 5MG 30COMP</t>
+  </si>
+  <si>
+    <t>TADALAFILA 20MG C/ 4COMP</t>
+  </si>
+  <si>
+    <t>DOMPLIV 10MG C/ 30COMP</t>
+  </si>
+  <si>
+    <t>PARACETAMOL+CAFEINA C/ 20CP</t>
+  </si>
+  <si>
+    <t>DICLOAIR AEROSOL 11,6MG 60GR 85ML</t>
+  </si>
+  <si>
+    <t>AMOXICILINA SUSP 500MG (AM) 150ML</t>
+  </si>
+  <si>
+    <t>GLICLAZIDA 60MG C/ 60 COM LIB PROL</t>
+  </si>
+  <si>
+    <t>MARACUJA CONCENTRIX FR 100ML</t>
+  </si>
+  <si>
+    <t>TIBOLONA 2,5MG C/ 30COMP</t>
+  </si>
+  <si>
+    <t>DIPROP BETAMETASONA CR 30G</t>
+  </si>
+  <si>
+    <t>COLIAFT 1MG/G PASTA 10G EMS</t>
+  </si>
+  <si>
+    <t>TESTE DE GRAVIDEZ TIRA VERICHECK 1 TESTE</t>
+  </si>
+  <si>
+    <t>ANTIVIRAX CREME 10GR EMS</t>
+  </si>
+  <si>
+    <t>INALAJET SUS SPR NAS 32MCG</t>
+  </si>
+  <si>
+    <t>SUPLEVIT AZ FR C/ 60COMP</t>
+  </si>
+  <si>
+    <t>FLUITEINA 200 MG 16ENV 5G</t>
+  </si>
+  <si>
+    <t>IBUPROFENO 100MG/ML 20ML LEG GEN</t>
+  </si>
+  <si>
+    <t>FD GER MULTIFRAL REGULAR EG 8X07</t>
+  </si>
+  <si>
+    <t>BUPROVIL 300MG C/ 20COMP</t>
+  </si>
+  <si>
+    <t>ENALAPRIL 10MG 30CP LEG-GEN</t>
+  </si>
+  <si>
+    <t>BENZOILMETRONIDAZOL (AM) 120ML</t>
+  </si>
+  <si>
+    <t>NATIVIT DHA 30 CPS</t>
+  </si>
+  <si>
+    <t>CETOCONAZOL+DIP BETA POM 30G</t>
+  </si>
+  <si>
+    <t>CETOCONAZOL 200MG C/ 10COMP</t>
+  </si>
+  <si>
+    <t>ATADURA DE CREPOM 15CMX1.8M</t>
+  </si>
+  <si>
+    <t>SILDENAFILA  50MG C/  4COMP</t>
+  </si>
+  <si>
+    <t>CARVEDILOL 25MG C/  30COMP</t>
+  </si>
+  <si>
+    <t>TYLEMAX 200MG/ML C/ 15ML</t>
+  </si>
+  <si>
+    <t>RESFENOL C/ 20CAPSULAS</t>
+  </si>
+  <si>
+    <t>EZETIMIBA+SINVAST 10/20MG 2BLX15CPR</t>
+  </si>
+  <si>
+    <t>MELOXICAM 15MG C/ 10COMP</t>
+  </si>
+  <si>
+    <t>TENOXICAM 20MG C/ 10COMP</t>
+  </si>
+  <si>
+    <t>DOMPERIDONA 10MG C/ 60COMP</t>
+  </si>
+  <si>
+    <t>MIOFIBRAX 10MG C/ 15 COMP REV</t>
+  </si>
+  <si>
+    <t>CICATENOL 50MG/G POMADA 30GR</t>
+  </si>
+  <si>
+    <t>PRIMULIV 30 GEL CPS</t>
+  </si>
+  <si>
+    <t>FIBREMS PO EFERV 10 SACHES 5G</t>
+  </si>
+  <si>
+    <t>ATADURA DE CREPOM 10CMX1.8M</t>
+  </si>
+  <si>
+    <t>INFRALAX C/ 15 COMP</t>
+  </si>
+  <si>
+    <t>NARIDRIN ADULTO FR C/15ML</t>
+  </si>
+  <si>
+    <t>AAS 100MG C/ 30COMP</t>
+  </si>
+  <si>
+    <t>MIGRALIV(D1) 1BL X 12 COMP</t>
+  </si>
+  <si>
+    <t>CLOR FEXOFENADINA 180MG C/ 10COMP</t>
+  </si>
+  <si>
+    <t>ENDCOFF MENTA C/ 12PAST</t>
+  </si>
+  <si>
+    <t>VITAFER 109MG C/ 50COMP</t>
+  </si>
+  <si>
+    <t>CLORTALIDONA 25MG C/ 60COMP</t>
+  </si>
+  <si>
+    <t>ACET TRIANCINOLONA PDA 10GR</t>
+  </si>
+  <si>
+    <t>NEOMICINA+BACITRACINA POM 15G</t>
+  </si>
+  <si>
+    <t>DORSPAN SOL ORAL C/ 20ML</t>
+  </si>
+  <si>
+    <t>AMOX+CLAVUL POT 500+125MG (AM) C/ 18CP</t>
+  </si>
+  <si>
+    <t>IBUFLEX 400MG C/ 8 CAPS GEL</t>
+  </si>
+  <si>
+    <t>SIMETICONA  40MG C/ 20COMP</t>
+  </si>
+  <si>
+    <t>TORSILAX C/ 30 COMP</t>
+  </si>
+  <si>
+    <t>PEPSOGEL SUSP 240ML</t>
+  </si>
+  <si>
+    <t>ESPIRONOLACTONA 25MG 30COMP</t>
+  </si>
+  <si>
+    <t>TORSILAX C/ 12 COMP</t>
+  </si>
+  <si>
+    <t>VOLIG 8MG C/ 10COMP</t>
+  </si>
+  <si>
+    <t>PREDMICIN PDA (AM) C/15GR</t>
+  </si>
+  <si>
+    <t>GLICLAZIDA CPR LIB PROL 60 MG C/ 60</t>
+  </si>
+  <si>
+    <t>FLUCONAZOL 150MG C/ 1CAP</t>
+  </si>
+  <si>
+    <t>ONCILEG A 1MG/G ORAL 10G</t>
+  </si>
+  <si>
+    <t>COMPRESSA HERIKA 13 FIOS 7,5CMX7,5 C/10</t>
+  </si>
+  <si>
+    <t>OMEGATIVE AZ C/ 30CAPS GEL</t>
+  </si>
+  <si>
+    <t>ESPASMO FLATOL C/ 20ML</t>
+  </si>
+  <si>
+    <t>EMSCORT POMADA 30G</t>
+  </si>
+  <si>
+    <t>CLOTRIMAZOL CR DERM 20GR</t>
+  </si>
+  <si>
+    <t>ADVITIL FRASCO 20ML</t>
+  </si>
+  <si>
+    <t>METILDOPA 500MG C/ 30CP</t>
+  </si>
+  <si>
+    <t>AG MULTIFRAL ADULTO G</t>
+  </si>
+  <si>
+    <t>AG PANTS MULTIFRAL G/EG C/ 1UN</t>
+  </si>
+  <si>
+    <t>LEVERCTIN 6 MG C/4COMP</t>
+  </si>
+  <si>
+    <t>ONCILEG CREME (AM) 30 GR</t>
+  </si>
+  <si>
+    <t>OXIMETAZOLINA INF 0,25MG 20ML</t>
+  </si>
+  <si>
+    <t>ATORVASTATINA 80MG C/ 30COMP</t>
+  </si>
+  <si>
+    <t>CAPTOPRIL 25MG C/ 30COMP</t>
+  </si>
+  <si>
+    <t>CICLOBENZAPRINA CLOR 10MG C/ 10COMP</t>
+  </si>
+  <si>
+    <t>CELOCORT CREME BG C/30GR</t>
+  </si>
+  <si>
+    <t>CENEVIT ZINCO 1G+10MG C/ 30CP EFERV</t>
+  </si>
+  <si>
+    <t>CLOR TANSULOSINA 0,4MG C/ 30</t>
+  </si>
+  <si>
+    <t>OLMESARTANA+HCTZ 40/25MG C/ 30COMP</t>
+  </si>
+  <si>
+    <t>DIOVASES 450+50MG C/30 COM.REV.</t>
+  </si>
+  <si>
+    <t>CLON LISINA+CICLOBEN 125/5MG C/15COMP</t>
+  </si>
+  <si>
+    <t>AG MULTIFRAL ADULTO M</t>
+  </si>
+  <si>
+    <t>CARELI 75 MCG 28 COMP REV</t>
+  </si>
+  <si>
+    <t>CETOCONAZOL+DIP BETA+S NEO CREME 30G</t>
+  </si>
+  <si>
+    <t>HISTAMIN 2MG C/ 20COMP</t>
+  </si>
+  <si>
+    <t>COMPRESSA DE GAZE 11 FIOS UND C/10</t>
+  </si>
+  <si>
+    <t>DICLOF SODICO DL 100MG 10CP REV</t>
+  </si>
+  <si>
+    <t>ALKAGEL MORANGO SUSP ORAL FR 240 ML</t>
+  </si>
+  <si>
+    <t>CICLORTEN  5MG C/ 20COMP</t>
+  </si>
+  <si>
+    <t>NARATRIN 2,5MG C/ 12COMP</t>
+  </si>
+  <si>
+    <t>TART BRIMONIDINA 2MG/ML S.OFT 5ML</t>
+  </si>
+  <si>
+    <t>DOMPLIV 10MG C/ 60COMP</t>
+  </si>
+  <si>
+    <t>OLMESARTANA+HCTZ 20/12,5MG C/ 30COMP</t>
+  </si>
+  <si>
+    <t>FITA CIRUR MICROPOROSA BRANCA 1,2CMX4,5M</t>
+  </si>
+  <si>
+    <t>ABS NAT GEL MAIS C/ ABA L8P7(60X8)</t>
+  </si>
+  <si>
+    <t>PROPIONATO CLOBETASOL PDA 30G</t>
+  </si>
+  <si>
+    <t>NIMESULIDA GEL 30GR</t>
+  </si>
+  <si>
+    <t>SUPLEVIT KIDS ABCD TUTTI-F C/ 240ML</t>
+  </si>
+  <si>
+    <t>AMOXICILINA 500MG (AM) C/ 30CAP</t>
+  </si>
+  <si>
+    <t>AMOX+CLAVUL POT 875+125MG (AM) C/ 12CP</t>
+  </si>
+  <si>
+    <t>ENALAPRIL 20MG 30CP</t>
+  </si>
+  <si>
+    <t>PIROXICAM 20MG C/ 10CAP</t>
+  </si>
+  <si>
+    <t>DESLORANA 5MG C/ 10COMP VER</t>
+  </si>
+  <si>
+    <t>AAS 100MG C/ 200COMP</t>
+  </si>
+  <si>
+    <t>CANDERM 250MG (AM) C/ 20C0MP</t>
+  </si>
+  <si>
+    <t>DIOVASES 450+50MG C/60 COM.REV.</t>
+  </si>
+  <si>
+    <t>ENALAPRIL 5MG 30CP</t>
+  </si>
+  <si>
+    <t>DEFLAZACORTE 6MG C/ 20COMP</t>
+  </si>
+  <si>
+    <t>TOALHAS UMED BABY BLESS 100 UND</t>
+  </si>
+  <si>
+    <t>DERMOBENE CREME C/20GR</t>
+  </si>
+  <si>
+    <t>ALLEXOFEDRIN ( D) 60+120MG C/ 10COMP</t>
+  </si>
+  <si>
+    <t>FOLIFOLIN 5MG C/ 30COMP</t>
+  </si>
+  <si>
+    <t>SOMINEX COMPOSTO REV C/ 20COMP</t>
+  </si>
+  <si>
+    <t>POLICLAVUMOXIL BD 400MG (AM) SUSP 70ML</t>
+  </si>
+  <si>
+    <t>OXIMETAZOLINA AD 0,5MG 30ML</t>
+  </si>
+  <si>
+    <t>DIPIRONA MONOID. 1G C/10 COMP</t>
+  </si>
+  <si>
+    <t>NOCICLIN C/21 COMP</t>
+  </si>
+  <si>
+    <t>ALLEXOFEDRIN PED 6MG/ML SUSP 150ML</t>
+  </si>
+  <si>
+    <t>NIMESILAM 100MG C/ 12COMP</t>
+  </si>
+  <si>
+    <t>EMISTIN 20COMP</t>
+  </si>
+  <si>
+    <t>ALLEXOFEDRIN 180MG C/ 10COM REV-</t>
+  </si>
+  <si>
+    <t>NARATRIPTANA 2,5MG C/ 4COMP</t>
+  </si>
+  <si>
+    <t>POLICLAVUMOXIL BD 875+125MG(AM) C/14COMP</t>
+  </si>
+  <si>
+    <t>EZETIMIBA 10MG 2BLT X 15COM</t>
+  </si>
+  <si>
+    <t>CICLORTEN 20MG C/ 10COMP</t>
+  </si>
+  <si>
+    <t>GLICLAZIDA CPR LIB PROL 60MG C/ 30</t>
+  </si>
+  <si>
+    <t>ROSUVASTATINA CALCICA 20MG C/ 30COMP</t>
+  </si>
+  <si>
+    <t>PARACETAMOL GOTAS 200MG 15ML</t>
+  </si>
+  <si>
+    <t>GLICLAZIDA CPR LIB PROL 30 MG C/ 60</t>
+  </si>
+  <si>
+    <t>BIOFLADEX AEROSOL 60G</t>
+  </si>
+  <si>
+    <t>IBULIV 400MG 2 BLT X 4 CAPS GEL</t>
+  </si>
+  <si>
+    <t>CENEVIT TRIPLA ACAO 30 CPR EFER S.A-L</t>
+  </si>
+  <si>
+    <t>PREVIANE C/ 21COMP</t>
+  </si>
+  <si>
+    <t>BEZAFIBRATO 200MG C/ 20CP</t>
+  </si>
+  <si>
+    <t>INDAPAMIDA 1,5MG C/ 30COMP</t>
+  </si>
+  <si>
+    <t>PARACETAMOL 750MG C/ 20COMP</t>
+  </si>
+  <si>
+    <t>BENZIFLEX LIS 125MG+5MG C/ 30COMP REV</t>
+  </si>
+  <si>
+    <t>CICLOBENZAPRINA CLOR 10MG C/ 15COMP</t>
+  </si>
+  <si>
+    <t>FUMARATO BISOPROLOL 2,5MG 30CP</t>
+  </si>
+  <si>
+    <t>DICLOF SODICO 50MG 20CP REV</t>
+  </si>
+  <si>
+    <t>ACICLOVIR CREME 50MG/G 10GR</t>
+  </si>
+  <si>
+    <t>MASCARA TRIPLA CIRURG DESCARTAVEL SSPLUS</t>
+  </si>
+  <si>
+    <t>DIPIRONA MONOID. 1G C/20 COMP</t>
+  </si>
+  <si>
+    <t>LIDOCAINA 50MG POM DERM 25GR</t>
+  </si>
+  <si>
+    <t>BILASTINA 20 MG X 30 COMP</t>
+  </si>
+  <si>
+    <t>REPOPIL C/ 63 CPDS REV</t>
+  </si>
+  <si>
+    <t>NARIDRIN LAVAGEM NASAL 30ENVX2,16G+FR240</t>
+  </si>
+  <si>
+    <t>PROPIONATO CLOBETASOL CRM 30G</t>
+  </si>
+  <si>
+    <t>FLUCETIL(ACETILCIS) 600MG-16 ENV</t>
+  </si>
+  <si>
+    <t>FITA CIRUR MICROPOROSA BRANCA 2,5CMX4,5M</t>
+  </si>
+  <si>
+    <t>SUPLEVIT AZ MULHER FR C/ 60COMP</t>
+  </si>
+  <si>
+    <t>MACA POWER 1200MG VITA + MINERAIS 60CAPS</t>
+  </si>
+  <si>
+    <t>DORALGINA 20DRG</t>
+  </si>
+  <si>
+    <t>CETOCONAZOL+DIP BETA+S NEO POM 30G</t>
+  </si>
+  <si>
+    <t>PREVIANE C/3 BL C/21 COMP</t>
+  </si>
+  <si>
+    <t>ANTIVIRAX 400MG C/ 30COMP</t>
+  </si>
+  <si>
+    <t>CETOCONAZOL+DIP BETA CREME 30G</t>
+  </si>
+  <si>
+    <t>OLMESARTANA+HCTZ 40/12,5MG C/ 30COMP</t>
+  </si>
+  <si>
+    <t>KELTRINA PLUS 5% 60ML</t>
+  </si>
+  <si>
+    <t>BENZIFLEX 10MG C/ 30COMP</t>
+  </si>
+  <si>
+    <t>RIFAMICINA (AM) SPRAY 20ML</t>
+  </si>
+  <si>
+    <t>CAPTOPRIL 50MG C/ 30COMP</t>
+  </si>
+  <si>
+    <t>SINVASTATINA 20MG 30COMP SANDOZ</t>
+  </si>
+  <si>
+    <t>RESFEGRIPE 20 CAPS</t>
+  </si>
+  <si>
+    <t>ESPIRONOLACTONA 50MG 30COMP</t>
+  </si>
+  <si>
+    <t>DICLOF POTASSICO 50MG 20CP</t>
+  </si>
+  <si>
+    <t>TOALHAS UMED PURO AMOR C/40</t>
+  </si>
+  <si>
+    <t>DICLOF RESINATO GTS 20ML</t>
+  </si>
+  <si>
+    <t>OMOPREL 20MG C/56 - BELFAR</t>
+  </si>
+  <si>
+    <t>ATENOLOL+CLORT 50/12,5MG C/ 30CP</t>
+  </si>
+  <si>
+    <t>PRED-GRAN 20MG C/ 10COMP</t>
+  </si>
+  <si>
+    <t>CICLOBENZAPRINA CLOR  5MG C/ 30COMP</t>
+  </si>
+  <si>
+    <t>LEVERCTIN 6 MG C/2COMP</t>
   </si>
 </sst>
 </file>
@@ -512,7 +1649,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,19 +1686,19 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>222</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>290</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -572,19 +1709,19 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>158</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>223</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>291</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -595,19 +1732,19 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>224</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>292</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -618,19 +1755,19 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>160</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>293</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -641,19 +1778,19 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>225</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>294</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -664,19 +1801,19 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>226</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>295</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -687,19 +1824,19 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>227</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>296</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -710,19 +1847,1652 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" t="s">
+        <v>228</v>
+      </c>
+      <c r="F9" t="s">
+        <v>297</v>
+      </c>
+      <c r="G9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" t="s">
+        <v>298</v>
+      </c>
+      <c r="G10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>229</v>
+      </c>
+      <c r="F11" t="s">
+        <v>299</v>
+      </c>
+      <c r="G11" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" t="s">
+        <v>230</v>
+      </c>
+      <c r="F12" t="s">
+        <v>300</v>
+      </c>
+      <c r="G12" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" t="s">
+        <v>231</v>
+      </c>
+      <c r="F13" t="s">
+        <v>301</v>
+      </c>
+      <c r="G13" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" t="s">
+        <v>232</v>
+      </c>
+      <c r="F14" t="s">
+        <v>302</v>
+      </c>
+      <c r="G14" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" t="s">
+        <v>233</v>
+      </c>
+      <c r="F15" t="s">
+        <v>303</v>
+      </c>
+      <c r="G15" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" t="s">
+        <v>234</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" t="s">
+        <v>235</v>
+      </c>
+      <c r="F17" t="s">
+        <v>304</v>
+      </c>
+      <c r="G17" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" t="s">
+        <v>169</v>
+      </c>
+      <c r="E18" t="s">
+        <v>236</v>
+      </c>
+      <c r="F18" t="s">
+        <v>305</v>
+      </c>
+      <c r="G18" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" t="s">
+        <v>170</v>
+      </c>
+      <c r="E19" t="s">
+        <v>237</v>
+      </c>
+      <c r="F19" t="s">
+        <v>306</v>
+      </c>
+      <c r="G19" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" t="s">
+        <v>171</v>
+      </c>
+      <c r="E20" t="s">
+        <v>238</v>
+      </c>
+      <c r="F20" t="s">
+        <v>307</v>
+      </c>
+      <c r="G20" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" t="s">
+        <v>172</v>
+      </c>
+      <c r="E21" t="s">
+        <v>239</v>
+      </c>
+      <c r="F21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G21" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>27</v>
       </c>
-      <c r="E9">
+      <c r="C22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" t="s">
+        <v>173</v>
+      </c>
+      <c r="E22" t="s">
+        <v>240</v>
+      </c>
+      <c r="F22" t="s">
+        <v>309</v>
+      </c>
+      <c r="G22" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" t="s">
+        <v>174</v>
+      </c>
+      <c r="E23" t="s">
+        <v>241</v>
+      </c>
+      <c r="F23" t="s">
+        <v>310</v>
+      </c>
+      <c r="G23" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" t="s">
+        <v>163</v>
+      </c>
+      <c r="E24" t="s">
+        <v>242</v>
+      </c>
+      <c r="F24" t="s">
+        <v>311</v>
+      </c>
+      <c r="G24" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" t="s">
+        <v>175</v>
+      </c>
+      <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
+        <v>312</v>
+      </c>
+      <c r="G25" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" t="s">
+        <v>176</v>
+      </c>
+      <c r="E26" t="s">
+        <v>243</v>
+      </c>
+      <c r="F26" t="s">
+        <v>313</v>
+      </c>
+      <c r="G26" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" t="s">
+        <v>177</v>
+      </c>
+      <c r="E27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F27" t="s">
+        <v>314</v>
+      </c>
+      <c r="G27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E28" t="s">
+        <v>244</v>
+      </c>
+      <c r="F28" t="s">
+        <v>315</v>
+      </c>
+      <c r="G28" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>179</v>
+      </c>
+      <c r="E29" t="s">
+        <v>245</v>
+      </c>
+      <c r="F29" t="s">
+        <v>316</v>
+      </c>
+      <c r="G29" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" t="s">
+        <v>180</v>
+      </c>
+      <c r="E30" t="s">
+        <v>246</v>
+      </c>
+      <c r="F30" t="s">
+        <v>317</v>
+      </c>
+      <c r="G30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" t="s">
+        <v>181</v>
+      </c>
+      <c r="E31" t="s">
+        <v>247</v>
+      </c>
+      <c r="F31" t="s">
+        <v>318</v>
+      </c>
+      <c r="G31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" t="s">
+        <v>182</v>
+      </c>
+      <c r="E32" t="s">
+        <v>248</v>
+      </c>
+      <c r="F32" t="s">
+        <v>319</v>
+      </c>
+      <c r="G32" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" t="s">
+        <v>183</v>
+      </c>
+      <c r="E33" t="s">
+        <v>249</v>
+      </c>
+      <c r="F33" t="s">
+        <v>320</v>
+      </c>
+      <c r="G33" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" t="s">
+        <v>161</v>
+      </c>
+      <c r="E34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F34" t="s">
+        <v>321</v>
+      </c>
+      <c r="G34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" t="s">
+        <v>184</v>
+      </c>
+      <c r="E35" t="s">
+        <v>251</v>
+      </c>
+      <c r="F35" t="s">
+        <v>284</v>
+      </c>
+      <c r="G35" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" t="s">
+        <v>185</v>
+      </c>
+      <c r="E36" t="s">
+        <v>252</v>
+      </c>
+      <c r="F36" t="s">
+        <v>322</v>
+      </c>
+      <c r="G36" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" t="s">
+        <v>186</v>
+      </c>
+      <c r="E37" t="s">
+        <v>253</v>
+      </c>
+      <c r="F37" t="s">
+        <v>323</v>
+      </c>
+      <c r="G37" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" t="s">
+        <v>187</v>
+      </c>
+      <c r="E38" t="s">
+        <v>254</v>
+      </c>
+      <c r="F38" t="s">
+        <v>324</v>
+      </c>
+      <c r="G38" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" t="s">
+        <v>177</v>
+      </c>
+      <c r="E39" t="s">
+        <v>255</v>
+      </c>
+      <c r="F39" t="s">
+        <v>325</v>
+      </c>
+      <c r="G39" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" t="s">
+        <v>188</v>
+      </c>
+      <c r="E40" t="s">
+        <v>256</v>
+      </c>
+      <c r="F40" t="s">
+        <v>326</v>
+      </c>
+      <c r="G40" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" t="s">
+        <v>142</v>
+      </c>
+      <c r="E41" t="s">
+        <v>257</v>
+      </c>
+      <c r="F41" t="s">
+        <v>327</v>
+      </c>
+      <c r="G41" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" t="s">
+        <v>189</v>
+      </c>
+      <c r="E42" t="s">
+        <v>258</v>
+      </c>
+      <c r="F42" t="s">
+        <v>328</v>
+      </c>
+      <c r="G42" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
         <v>48</v>
       </c>
-      <c r="F9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="C43" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" t="s">
+        <v>190</v>
+      </c>
+      <c r="E43" t="s">
+        <v>150</v>
+      </c>
+      <c r="F43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" t="s">
+        <v>191</v>
+      </c>
+      <c r="E44" t="s">
+        <v>107</v>
+      </c>
+      <c r="F44" t="s">
+        <v>329</v>
+      </c>
+      <c r="G44" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45" t="s">
+        <v>192</v>
+      </c>
+      <c r="E45" t="s">
+        <v>259</v>
+      </c>
+      <c r="F45" t="s">
+        <v>330</v>
+      </c>
+      <c r="G45" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" t="s">
+        <v>193</v>
+      </c>
+      <c r="E46" t="s">
+        <v>260</v>
+      </c>
+      <c r="F46" t="s">
+        <v>331</v>
+      </c>
+      <c r="G46" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
         <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" t="s">
+        <v>123</v>
+      </c>
+      <c r="E47" t="s">
+        <v>60</v>
+      </c>
+      <c r="F47" t="s">
+        <v>332</v>
+      </c>
+      <c r="G47" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" t="s">
+        <v>194</v>
+      </c>
+      <c r="E48" t="s">
+        <v>261</v>
+      </c>
+      <c r="F48" t="s">
+        <v>333</v>
+      </c>
+      <c r="G48" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" t="s">
+        <v>127</v>
+      </c>
+      <c r="D49" t="s">
+        <v>195</v>
+      </c>
+      <c r="E49" t="s">
+        <v>262</v>
+      </c>
+      <c r="F49" t="s">
+        <v>334</v>
+      </c>
+      <c r="G49" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" t="s">
+        <v>128</v>
+      </c>
+      <c r="D50" t="s">
+        <v>196</v>
+      </c>
+      <c r="E50" t="s">
+        <v>231</v>
+      </c>
+      <c r="F50" t="s">
+        <v>335</v>
+      </c>
+      <c r="G50" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" t="s">
+        <v>129</v>
+      </c>
+      <c r="D51" t="s">
+        <v>197</v>
+      </c>
+      <c r="E51" t="s">
+        <v>263</v>
+      </c>
+      <c r="F51" t="s">
+        <v>336</v>
+      </c>
+      <c r="G51" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" t="s">
+        <v>198</v>
+      </c>
+      <c r="E52" t="s">
+        <v>264</v>
+      </c>
+      <c r="F52" t="s">
+        <v>337</v>
+      </c>
+      <c r="G52" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53" t="s">
+        <v>199</v>
+      </c>
+      <c r="E53" t="s">
+        <v>265</v>
+      </c>
+      <c r="F53" t="s">
+        <v>338</v>
+      </c>
+      <c r="G53" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" t="s">
+        <v>132</v>
+      </c>
+      <c r="D54" t="s">
+        <v>200</v>
+      </c>
+      <c r="E54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F54" t="s">
+        <v>217</v>
+      </c>
+      <c r="G54" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>133</v>
+      </c>
+      <c r="D55" t="s">
+        <v>201</v>
+      </c>
+      <c r="E55" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" t="s">
+        <v>339</v>
+      </c>
+      <c r="G55" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" t="s">
+        <v>134</v>
+      </c>
+      <c r="D56" t="s">
+        <v>202</v>
+      </c>
+      <c r="E56" t="s">
+        <v>267</v>
+      </c>
+      <c r="F56" t="s">
+        <v>340</v>
+      </c>
+      <c r="G56" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" t="s">
+        <v>135</v>
+      </c>
+      <c r="D57" t="s">
+        <v>203</v>
+      </c>
+      <c r="E57" t="s">
+        <v>268</v>
+      </c>
+      <c r="F57" t="s">
+        <v>341</v>
+      </c>
+      <c r="G57" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" t="s">
+        <v>136</v>
+      </c>
+      <c r="D58" t="s">
+        <v>114</v>
+      </c>
+      <c r="E58" t="s">
+        <v>269</v>
+      </c>
+      <c r="F58" t="s">
+        <v>342</v>
+      </c>
+      <c r="G58" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" t="s">
+        <v>137</v>
+      </c>
+      <c r="D59" t="s">
+        <v>204</v>
+      </c>
+      <c r="E59" t="s">
+        <v>270</v>
+      </c>
+      <c r="F59" t="s">
+        <v>343</v>
+      </c>
+      <c r="G59" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" t="s">
+        <v>138</v>
+      </c>
+      <c r="D60" t="s">
+        <v>205</v>
+      </c>
+      <c r="E60" t="s">
+        <v>271</v>
+      </c>
+      <c r="F60" t="s">
+        <v>344</v>
+      </c>
+      <c r="G60" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" t="s">
+        <v>139</v>
+      </c>
+      <c r="D61" t="s">
+        <v>144</v>
+      </c>
+      <c r="E61" t="s">
+        <v>272</v>
+      </c>
+      <c r="F61" t="s">
+        <v>345</v>
+      </c>
+      <c r="G61" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" t="s">
+        <v>140</v>
+      </c>
+      <c r="D62" t="s">
+        <v>206</v>
+      </c>
+      <c r="E62" t="s">
+        <v>273</v>
+      </c>
+      <c r="F62" t="s">
+        <v>346</v>
+      </c>
+      <c r="G62" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" t="s">
+        <v>141</v>
+      </c>
+      <c r="D63" t="s">
+        <v>99</v>
+      </c>
+      <c r="E63" t="s">
+        <v>177</v>
+      </c>
+      <c r="F63" t="s">
+        <v>347</v>
+      </c>
+      <c r="G63" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" t="s">
+        <v>142</v>
+      </c>
+      <c r="D64" t="s">
+        <v>207</v>
+      </c>
+      <c r="E64" t="s">
+        <v>274</v>
+      </c>
+      <c r="F64" t="s">
+        <v>348</v>
+      </c>
+      <c r="G64" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" t="s">
+        <v>143</v>
+      </c>
+      <c r="D65" t="s">
+        <v>208</v>
+      </c>
+      <c r="E65" t="s">
+        <v>275</v>
+      </c>
+      <c r="F65" t="s">
+        <v>349</v>
+      </c>
+      <c r="G65" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" t="s">
+        <v>209</v>
+      </c>
+      <c r="E66" t="s">
+        <v>276</v>
+      </c>
+      <c r="F66" t="s">
+        <v>350</v>
+      </c>
+      <c r="G66" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" t="s">
+        <v>144</v>
+      </c>
+      <c r="D67" t="s">
+        <v>210</v>
+      </c>
+      <c r="E67" t="s">
+        <v>277</v>
+      </c>
+      <c r="F67" t="s">
+        <v>351</v>
+      </c>
+      <c r="G67" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" t="s">
+        <v>145</v>
+      </c>
+      <c r="D68" t="s">
+        <v>211</v>
+      </c>
+      <c r="E68" t="s">
+        <v>278</v>
+      </c>
+      <c r="F68" t="s">
+        <v>352</v>
+      </c>
+      <c r="G68" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" t="s">
+        <v>121</v>
+      </c>
+      <c r="D69" t="s">
+        <v>212</v>
+      </c>
+      <c r="E69" t="s">
+        <v>163</v>
+      </c>
+      <c r="F69" t="s">
+        <v>353</v>
+      </c>
+      <c r="G69" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" t="s">
+        <v>146</v>
+      </c>
+      <c r="D70" t="s">
+        <v>213</v>
+      </c>
+      <c r="E70" t="s">
+        <v>279</v>
+      </c>
+      <c r="F70" t="s">
+        <v>127</v>
+      </c>
+      <c r="G70" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71" t="s">
+        <v>147</v>
+      </c>
+      <c r="D71" t="s">
+        <v>214</v>
+      </c>
+      <c r="E71" t="s">
+        <v>280</v>
+      </c>
+      <c r="F71" t="s">
+        <v>354</v>
+      </c>
+      <c r="G71" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72" t="s">
+        <v>148</v>
+      </c>
+      <c r="D72" t="s">
+        <v>215</v>
+      </c>
+      <c r="E72" t="s">
+        <v>281</v>
+      </c>
+      <c r="F72" t="s">
+        <v>355</v>
+      </c>
+      <c r="G72" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" t="s">
+        <v>149</v>
+      </c>
+      <c r="D73" t="s">
+        <v>216</v>
+      </c>
+      <c r="E73" t="s">
+        <v>282</v>
+      </c>
+      <c r="F73" t="s">
+        <v>69</v>
+      </c>
+      <c r="G73" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" t="s">
+        <v>150</v>
+      </c>
+      <c r="D74" t="s">
+        <v>184</v>
+      </c>
+      <c r="E74" t="s">
+        <v>283</v>
+      </c>
+      <c r="F74" t="s">
+        <v>356</v>
+      </c>
+      <c r="G74" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" t="s">
+        <v>151</v>
+      </c>
+      <c r="D75" t="s">
+        <v>217</v>
+      </c>
+      <c r="E75" t="s">
+        <v>284</v>
+      </c>
+      <c r="F75" t="s">
+        <v>357</v>
+      </c>
+      <c r="G75" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" t="s">
+        <v>152</v>
+      </c>
+      <c r="D76" t="s">
+        <v>218</v>
+      </c>
+      <c r="E76" t="s">
+        <v>285</v>
+      </c>
+      <c r="F76" t="s">
+        <v>358</v>
+      </c>
+      <c r="G76" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" t="s">
+        <v>153</v>
+      </c>
+      <c r="D77" t="s">
+        <v>135</v>
+      </c>
+      <c r="E77" t="s">
+        <v>286</v>
+      </c>
+      <c r="F77" t="s">
+        <v>359</v>
+      </c>
+      <c r="G77" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78" t="s">
+        <v>154</v>
+      </c>
+      <c r="D78" t="s">
+        <v>219</v>
+      </c>
+      <c r="E78" t="s">
+        <v>287</v>
+      </c>
+      <c r="F78" t="s">
+        <v>360</v>
+      </c>
+      <c r="G78" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" t="s">
+        <v>155</v>
+      </c>
+      <c r="D79" t="s">
+        <v>220</v>
+      </c>
+      <c r="E79" t="s">
+        <v>288</v>
+      </c>
+      <c r="F79" t="s">
+        <v>361</v>
+      </c>
+      <c r="G79" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80" t="s">
+        <v>156</v>
+      </c>
+      <c r="D80" t="s">
+        <v>221</v>
+      </c>
+      <c r="E80" t="s">
+        <v>289</v>
+      </c>
+      <c r="F80" t="s">
+        <v>362</v>
+      </c>
+      <c r="G80" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
